--- a/dist/document/dest/2020/10/doctors/cnmp.xlsx
+++ b/dist/document/dest/2020/10/doctors/cnmp.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>77</v>
       </c>
-      <c r="C2" s="1">
-        <v>592900</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>12</v>
       </c>
-      <c r="C3" s="1">
-        <v>48000</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>7</v>
       </c>
-      <c r="C4" s="1">
-        <v>26145</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>14</v>
       </c>
-      <c r="C5" s="1">
-        <v>6020</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
-        <v>17370</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>10</v>
       </c>
-      <c r="C7" s="1">
-        <v>130000</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>14</v>
       </c>
-      <c r="C8" s="1">
-        <v>128800</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>14</v>
       </c>
-      <c r="C9" s="1">
-        <v>57540</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="1">
-        <v>53550</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="1">
-        <v>78900</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="1">
-        <v>19500</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>14</v>
       </c>
-      <c r="C13" s="1">
-        <v>107800</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>28</v>
       </c>
-      <c r="C14" s="1">
-        <v>209440</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>42</v>
       </c>
-      <c r="C15" s="1">
-        <v>244860</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>7</v>
       </c>
-      <c r="C16" s="1">
-        <v>70000</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>7</v>
       </c>
-      <c r="C17" s="1">
-        <v>90300</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>7</v>
       </c>
-      <c r="C18" s="1">
-        <v>172900</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>14</v>
       </c>
-      <c r="C19" s="1">
-        <v>9170</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>35</v>
       </c>
-      <c r="C20" s="1">
-        <v>442750</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>63</v>
       </c>
-      <c r="C21" s="1">
-        <v>289800</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>5</v>
       </c>
-      <c r="C22" s="1">
-        <v>5000</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>33</v>
       </c>
-      <c r="C23" s="1">
-        <v>217800</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>17</v>
       </c>
-      <c r="C24" s="1">
-        <v>78370</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>6</v>
       </c>
-      <c r="C25" s="1">
-        <v>12720</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>7</v>
       </c>
-      <c r="C26" s="1">
-        <v>61390</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>21</v>
       </c>
-      <c r="C27" s="1">
-        <v>10920</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>6</v>
       </c>
-      <c r="C28" s="1">
-        <v>42900</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>10</v>
       </c>
-      <c r="C29" s="1">
-        <v>48600</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>91</v>
       </c>
-      <c r="C30" s="1">
-        <v>690690</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>26</v>
       </c>
-      <c r="C31" s="1">
-        <v>88920</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>14</v>
       </c>
-      <c r="C32" s="1">
-        <v>247240</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -746,7 +653,7 @@
         <v>622</v>
       </c>
       <c r="C33" s="1">
-        <v>4300295</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/cnmp.xlsx
+++ b/dist/document/dest/2020/10/doctors/cnmp.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,146 +399,200 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Atorcal 20mg (Atorvastatin)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B2" s="1">
-        <v>77</v>
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>57500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Betaserc 16mg (Betahistine dihydrochloride)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B3" s="1">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="C3" s="1">
+        <v>161700</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
+        <v>Ausbiobone (Glucosamine, chondroitin, manganese)</v>
       </c>
       <c r="B4" s="1">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>52900</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Calci D</v>
+        <v>Betaserc 16mg (Betahistine dihydrochloride)</v>
       </c>
       <c r="B5" s="1">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>40000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v xml:space="preserve">Calcium C1000 </v>
+        <v>Betaserc 16mg (Betahistine dihydrochloride)</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>24000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Celebrex (Celecoxib 200mg)</v>
+        <v>Calci D</v>
       </c>
       <c r="B7" s="1">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6450</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Cozaar (Losartan 50mg)</v>
+        <v>Calcium SANDOZ + vitamin D3</v>
       </c>
       <c r="B8" s="1">
         <v>14</v>
       </c>
+      <c r="C8" s="1">
+        <v>78890</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Daflon (Diosmin, hesperidin)</v>
+        <v>Clatab (Clarithromycin 500mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>92400</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Enterogermina 5ml</v>
+        <v>Digoxine qualy 0.25mg</v>
       </c>
       <c r="B10" s="1">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3600</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Enterogermina 5ml</v>
+        <v>Diurefar (Furosemide 40mg)</v>
       </c>
       <c r="B11" s="1">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1715</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Fugaca ( Mebendazole) 500mg</v>
+        <v>Efferalgan Sủi 500mg</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>18600</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Legalon (Silymarin 140mg)</v>
+        <v>Enat (Vitamin E 400)</v>
       </c>
       <c r="B13" s="1">
         <v>14</v>
       </c>
+      <c r="C13" s="1">
+        <v>49000</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Livosil (Silymarin 140mg)</v>
+        <v>Exomuc (Acetylcysteine 200mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>29160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+        <v>Livosil (Silymarin 140mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>42</v>
+        <v>28</v>
+      </c>
+      <c r="C15" s="1">
+        <v>209440</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Mobic (Meloxicam) ( v) 7.5mg</v>
+        <v>Lucass 200 (Cefpodoxime)</v>
       </c>
       <c r="B16" s="1">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
+        <v>194040</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Neurontin (Gabapentin 300mg)</v>
+        <v>Mobic (Meloxicam) ( v) 7.5mg</v>
       </c>
       <c r="B17" s="1">
-        <v>7</v>
+        <v>50</v>
+      </c>
+      <c r="C17" s="1">
+        <v>500000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Nexium (Esomeprazole 20mg)</v>
+        <v>Motilium M (Domperidone 10mg)</v>
       </c>
       <c r="B18" s="1">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>12300</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Nifedipin 20</v>
+        <v>Nolpaza (Pantoprazole 40mg)</v>
       </c>
       <c r="B19" s="1">
         <v>14</v>
+      </c>
+      <c r="C19" s="1">
+        <v>177100</v>
       </c>
     </row>
     <row r="20">
@@ -546,47 +600,65 @@
         <v>Nolpaza (Pantoprazole 40mg)</v>
       </c>
       <c r="B20" s="1">
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="C20" s="1">
+        <v>88550</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Normodipine (Amlodipine 5mg)</v>
+        <v>Nolpaza (Pantoprazole 40mg)</v>
       </c>
       <c r="B21" s="1">
-        <v>63</v>
+        <v>3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>37950</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Panadol (Paracetamol)</v>
+        <v>Nolpaza (Pantoprazole 40mg)</v>
       </c>
       <c r="B22" s="1">
-        <v>5</v>
+        <v>28</v>
+      </c>
+      <c r="C22" s="1">
+        <v>354200</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Pantonix (Pantoprazole 40mg)</v>
+        <v>Oxabiti (Mecobalamine 500mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>33</v>
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
+        <v>32200</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Phosphalugel (Colloidal aluminium phosphate)</v>
+        <v>Pantonix (Pantoprazole 40mg)</v>
       </c>
       <c r="B24" s="1">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="C24" s="1">
+        <v>92400</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Primpéran (viên) (Metoclopramide 10mg)</v>
+        <v xml:space="preserve">Prednisone </v>
       </c>
       <c r="B25" s="1">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1365</v>
       </c>
     </row>
     <row r="26">
@@ -594,71 +666,136 @@
         <v>Rabesime (Rabeprazole 20mg)</v>
       </c>
       <c r="B26" s="1">
-        <v>7</v>
+        <v>50</v>
+      </c>
+      <c r="C26" s="1">
+        <v>438500</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Stadpizide (Sulpirid 50mg)</v>
+        <v>Rabesime (Rabeprazole 20mg)</v>
       </c>
       <c r="B27" s="1">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="C27" s="1">
+        <v>122780</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Sucar Suspension (Sucralfate 1g)</v>
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
       </c>
       <c r="B28" s="1">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="C28" s="1">
+        <v>132000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Tanakan (Ginkgo biloba 40mg)</v>
+        <v>Rotalzon (Losartan 50mg)</v>
       </c>
       <c r="B29" s="1">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>28600</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Telod (Telmisartan 40mg)</v>
+        <v>Sucar Suspension (Sucralfate 1g)</v>
       </c>
       <c r="B30" s="1">
-        <v>91</v>
+        <v>6</v>
+      </c>
+      <c r="C30" s="1">
+        <v>42900</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Vastarel MR (Trimetazindine) 35mg</v>
+        <v>Telfast 60mg (Fexofenadin)</v>
       </c>
       <c r="B31" s="1">
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="C31" s="1">
+        <v>24300</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Xatral XL(Alfuzosine 10mg)</v>
+        <v>Telod (Telmisartan 40mg)</v>
       </c>
       <c r="B32" s="1">
         <v>14</v>
       </c>
+      <c r="C32" s="1">
+        <v>106260</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
+        <v>Ultracet (Tramadol 37.5mg, paracetamol 325mg)</v>
+      </c>
+      <c r="B33" s="1">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1">
+        <v>123200</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Ultracet (Tramadol 37.5mg, paracetamol 325mg)</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Vastarel MR (Trimetazindine) 35mg</v>
+      </c>
+      <c r="B35" s="1">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1">
+        <v>47880</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Vastarel MR (Trimetazindine) 35mg</v>
+      </c>
+      <c r="B36" s="1">
+        <v>28</v>
+      </c>
+      <c r="C36" s="1">
+        <v>95760</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B33" s="1">
-        <v>622</v>
-      </c>
-      <c r="C33" s="1">
-        <v>NaN</v>
+      <c r="B37" s="1">
+        <v>473</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3521640</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C33"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C37"/>
   </ignoredErrors>
 </worksheet>
 </file>